--- a/data/InaugurationInfo.xlsx
+++ b/data/InaugurationInfo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianzheng/Dropbox/Tian_Teaching/G5243-ADS/Spring2017/Tutorials/speeches/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesle\Documents\GitHub\ADS_Teaching\Projects_StarterCodes\Project1-RNotebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="3420" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="8078" yWindow="3420" windowWidth="25523" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
   <si>
     <t>President</t>
   </si>
@@ -87,13 +87,7 @@
     <t>James Garfield</t>
   </si>
   <si>
-    <t>Grover Cleveland - I</t>
-  </si>
-  <si>
     <t>Benjamin Harrison</t>
-  </si>
-  <si>
-    <t>Grover Cleveland - II</t>
   </si>
   <si>
     <t>William McKinley</t>
@@ -305,11 +299,14 @@
   <si>
     <t>File</t>
   </si>
+  <si>
+    <t>Grover Cleveland</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -356,7 +353,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -364,6 +361,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -385,7 +385,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -440,7 +446,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -495,7 +507,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -550,7 +568,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -605,7 +629,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -660,7 +690,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -715,7 +751,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="8" name="Picture 7" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -770,7 +812,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="9" name="Picture 8" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -825,7 +873,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -880,7 +934,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="11" name="Picture 10" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -935,7 +995,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="12" name="Picture 11" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -990,7 +1056,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="13" name="Picture 12" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1045,7 +1117,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="14" name="Picture 13" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1100,7 +1178,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="15" name="Picture 14" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1155,7 +1239,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="16" name="Picture 15" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1210,7 +1300,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="17" name="Picture 16" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1265,7 +1361,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="18" name="Picture 17" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1320,7 +1422,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="19" name="Picture 18" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1375,7 +1483,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="20" name="Picture 19" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1430,7 +1544,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="21" name="Picture 20" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1485,7 +1605,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="22" name="Picture 21" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1540,7 +1666,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="23" name="Picture 22" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1595,7 +1727,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="24" name="Picture 23" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1650,7 +1788,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="25" name="Picture 24" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1705,7 +1849,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="26" name="Picture 25" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1760,7 +1910,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="27" name="Picture 26" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1815,7 +1971,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="28" name="Picture 27" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1870,7 +2032,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="29" name="Picture 28" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1925,7 +2093,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="30" name="Picture 29" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1980,7 +2154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="31" name="Picture 30" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2035,7 +2215,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="32" name="Picture 31" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2090,7 +2276,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="33" name="Picture 32" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2145,7 +2337,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="34" name="Picture 33" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2200,7 +2398,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="35" name="Picture 34" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2255,7 +2459,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="36" name="Picture 35" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2310,7 +2520,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="37" name="Picture 36" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2365,7 +2581,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="38" name="Picture 37" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2420,7 +2642,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="39" name="Picture 38" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2475,7 +2703,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="40" name="Picture 39" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2530,7 +2764,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="41" name="Picture 40" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2585,7 +2825,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="42" name="Picture 41" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2640,7 +2886,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="43" name="Picture 42" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2695,7 +2947,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 43" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="44" name="Picture 43" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2750,7 +3008,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="45" name="Picture 44" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2805,7 +3069,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="46" name="Picture 45" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2860,7 +3130,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="47" name="Picture 46" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2915,7 +3191,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="48" name="Picture 47" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2970,7 +3252,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="49" name="Picture 48" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3025,7 +3313,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="50" name="Picture 49" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3080,7 +3374,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="51" name="Picture 50" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3135,7 +3435,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="52" name="Picture 51" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3190,7 +3496,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="53" name="Picture 52" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3245,7 +3557,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="54" name="Picture 53" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3300,7 +3618,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="55" name="Picture 54" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3355,7 +3679,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="56" name="Picture 55" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3410,7 +3740,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="57" name="Picture 56" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3465,7 +3801,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="58" name="Picture 57" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3520,7 +3862,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="59" name="Picture 58" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3575,7 +3923,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="60" name="Picture 59" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3630,7 +3984,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 60" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="61" name="Picture 60" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3685,7 +4045,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="62" name="Picture 61" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3740,7 +4106,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="63" name="Picture 62" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3795,7 +4167,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="64" name="Picture 63" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3850,7 +4228,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="65" name="Picture 64" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3905,7 +4289,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="66" name="Picture 65" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3960,7 +4350,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="67" name="Picture 66" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4015,7 +4411,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="68" name="Picture 67" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4070,7 +4472,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="69" name="Picture 68" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4125,7 +4533,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="70" name="Picture 69" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4180,7 +4594,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="71" name="Picture 70" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4235,7 +4655,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="72" name="Picture 71" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4290,7 +4716,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="73" name="Picture 72" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4345,7 +4777,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="74" name="Picture 73" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4400,7 +4838,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="75" name="Picture 74" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4455,7 +4899,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="76" name="Picture 75" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4510,7 +4960,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="77" name="Picture 76" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4565,7 +5021,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="78" name="Picture 77" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4620,7 +5082,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="79" name="Picture 78" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4675,7 +5143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="80" name="Picture 79" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4730,7 +5204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="81" name="Picture 80" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4785,7 +5265,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="82" name="Picture 81" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4840,7 +5326,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="83" name="Picture 82" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4895,7 +5387,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="84" name="Picture 83" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4950,7 +5448,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 84" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="85" name="Picture 84" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5005,7 +5509,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Picture 85" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="86" name="Picture 85" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5060,7 +5570,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Picture 86" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="87" name="Picture 86" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5115,7 +5631,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Picture 87" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="88" name="Picture 87" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5170,7 +5692,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Picture 88" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="89" name="Picture 88" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5225,7 +5753,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 89" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="90" name="Picture 89" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5280,7 +5814,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 90" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="91" name="Picture 90" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5335,7 +5875,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 91" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="92" name="Picture 91" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5390,7 +5936,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Picture 92" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="93" name="Picture 92" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5445,7 +5997,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 93" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="94" name="Picture 93" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5500,7 +6058,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Picture 94" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="95" name="Picture 94" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5555,7 +6119,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Picture 95" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="96" name="Picture 95" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5610,7 +6180,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Picture 96" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="97" name="Picture 96" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5665,7 +6241,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Picture 97" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="98" name="Picture 97" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5720,7 +6302,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Picture 98" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="99" name="Picture 98" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5775,7 +6363,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Picture 99" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="100" name="Picture 99" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5830,7 +6424,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Picture 100" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="101" name="Picture 100" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5885,7 +6485,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Picture 101" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="102" name="Picture 101" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5940,7 +6546,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Picture 102" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="103" name="Picture 102" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5995,7 +6607,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Picture 103" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="104" name="Picture 103" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6050,7 +6668,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Picture 104" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="105" name="Picture 104" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6105,7 +6729,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Picture 105" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="106" name="Picture 105" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6160,7 +6790,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Picture 106" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="107" name="Picture 106" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6215,7 +6851,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Picture 107" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="108" name="Picture 107" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6270,7 +6912,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Picture 108" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="109" name="Picture 108" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6325,7 +6973,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Picture 109" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="110" name="Picture 109" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6380,7 +7034,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Picture 110" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="111" name="Picture 110" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6435,7 +7095,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Picture 111" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="112" name="Picture 111" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6490,7 +7156,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="Picture 112" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="113" name="Picture 112" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6545,7 +7217,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="Picture 113" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="114" name="Picture 113" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6600,7 +7278,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="Picture 114" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="115" name="Picture 114" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6655,7 +7339,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="116" name="Picture 115" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="116" name="Picture 115" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6710,7 +7400,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="117" name="Picture 116" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="117" name="Picture 116" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6770,7 +7466,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6825,7 +7527,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6880,7 +7588,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6935,7 +7649,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6990,7 +7710,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7045,7 +7771,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7100,7 +7832,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="8" name="Picture 7" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7155,7 +7893,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="9" name="Picture 8" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7210,7 +7954,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7265,7 +8015,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="11" name="Picture 10" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7320,7 +8076,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="12" name="Picture 11" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7375,7 +8137,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="13" name="Picture 12" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7430,7 +8198,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="14" name="Picture 13" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7485,7 +8259,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="15" name="Picture 14" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7540,7 +8320,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="16" name="Picture 15" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7595,7 +8381,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="17" name="Picture 16" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7650,7 +8442,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="18" name="Picture 17" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7705,7 +8503,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="19" name="Picture 18" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7760,7 +8564,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="20" name="Picture 19" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7815,7 +8625,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="21" name="Picture 20" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7870,7 +8686,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="22" name="Picture 21" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7925,7 +8747,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="23" name="Picture 22" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7980,7 +8808,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="24" name="Picture 23" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8035,7 +8869,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="25" name="Picture 24" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8090,7 +8930,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="26" name="Picture 25" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8145,7 +8991,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="27" name="Picture 26" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8200,7 +9052,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="28" name="Picture 27" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8255,7 +9113,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="29" name="Picture 28" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8310,7 +9174,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="30" name="Picture 29" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8365,7 +9235,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="31" name="Picture 30" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8420,7 +9296,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="32" name="Picture 31" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8475,7 +9357,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="33" name="Picture 32" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8530,7 +9418,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="34" name="Picture 33" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8585,7 +9479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="35" name="Picture 34" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8640,7 +9540,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="36" name="Picture 35" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8695,7 +9601,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="37" name="Picture 36" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8750,7 +9662,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="38" name="Picture 37" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8805,7 +9723,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="39" name="Picture 38" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8860,7 +9784,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="40" name="Picture 39" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8915,7 +9845,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="41" name="Picture 40" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8970,7 +9906,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="42" name="Picture 41" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9025,7 +9967,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="43" name="Picture 42" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9080,7 +10028,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 43" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="44" name="Picture 43" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9135,7 +10089,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="45" name="Picture 44" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9190,7 +10150,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="46" name="Picture 45" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9245,7 +10211,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="47" name="Picture 46" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9300,7 +10272,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="48" name="Picture 47" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9355,7 +10333,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="49" name="Picture 48" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9410,7 +10394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="50" name="Picture 49" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9465,7 +10455,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="51" name="Picture 50" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9520,7 +10516,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="52" name="Picture 51" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9575,7 +10577,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="53" name="Picture 52" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9630,7 +10638,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="54" name="Picture 53" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9685,7 +10699,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="55" name="Picture 54" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9740,7 +10760,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="56" name="Picture 55" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9795,7 +10821,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="57" name="Picture 56" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9850,7 +10882,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="58" name="Picture 57" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9905,7 +10943,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="59" name="Picture 58" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9960,7 +11004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="60" name="Picture 59" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10015,7 +11065,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 60" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="61" name="Picture 60" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10070,7 +11126,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="62" name="Picture 61" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10125,7 +11187,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="63" name="Picture 62" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10180,7 +11248,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="64" name="Picture 63" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10235,7 +11309,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="65" name="Picture 64" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10290,7 +11370,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="66" name="Picture 65" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10345,7 +11431,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="67" name="Picture 66" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10400,7 +11492,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="68" name="Picture 67" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10455,7 +11553,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="69" name="Picture 68" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10510,7 +11614,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="70" name="Picture 69" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10565,7 +11675,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="71" name="Picture 70" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10620,7 +11736,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="72" name="Picture 71" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10675,7 +11797,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="73" name="Picture 72" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10730,7 +11858,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="74" name="Picture 73" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10785,7 +11919,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="75" name="Picture 74" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10840,7 +11980,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="76" name="Picture 75" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10895,7 +12041,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="77" name="Picture 76" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10950,7 +12102,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="78" name="Picture 77" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11005,7 +12163,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="79" name="Picture 78" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11060,7 +12224,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="80" name="Picture 79" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11115,7 +12285,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="81" name="Picture 80" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11170,7 +12346,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="82" name="Picture 81" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11225,7 +12407,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="83" name="Picture 82" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11280,7 +12468,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="84" name="Picture 83" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11335,7 +12529,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 84" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="85" name="Picture 84" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11390,7 +12590,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Picture 85" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="86" name="Picture 85" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11445,7 +12651,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Picture 86" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="87" name="Picture 86" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11500,7 +12712,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Picture 87" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="88" name="Picture 87" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11555,7 +12773,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Picture 88" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="89" name="Picture 88" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11610,7 +12834,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 89" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="90" name="Picture 89" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11665,7 +12895,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 90" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="91" name="Picture 90" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11720,7 +12956,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 91" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="92" name="Picture 91" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11775,7 +13017,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Picture 92" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="93" name="Picture 92" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11830,7 +13078,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 93" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="94" name="Picture 93" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11885,7 +13139,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Picture 94" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="95" name="Picture 94" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11940,7 +13200,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Picture 95" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="96" name="Picture 95" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11995,7 +13261,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Picture 96" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="97" name="Picture 96" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12050,7 +13322,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Picture 97" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="98" name="Picture 97" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12105,7 +13383,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Picture 98" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="99" name="Picture 98" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12160,7 +13444,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Picture 99" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="100" name="Picture 99" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12215,7 +13505,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Picture 100" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="101" name="Picture 100" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12270,7 +13566,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Picture 101" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="102" name="Picture 101" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12325,7 +13627,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Picture 102" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="103" name="Picture 102" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12380,7 +13688,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Picture 103" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="104" name="Picture 103" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12435,7 +13749,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Picture 104" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="105" name="Picture 104" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12490,7 +13810,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Picture 105" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="106" name="Picture 105" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12545,7 +13871,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Picture 106" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="107" name="Picture 106" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12600,7 +13932,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Picture 107" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="108" name="Picture 107" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12655,7 +13993,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Picture 108" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="109" name="Picture 108" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12710,7 +14054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Picture 109" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="110" name="Picture 109" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12765,7 +14115,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Picture 110" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="111" name="Picture 110" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12820,7 +14176,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Picture 111" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="112" name="Picture 111" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12875,7 +14237,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="Picture 112" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="113" name="Picture 112" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12930,7 +14298,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="Picture 113" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="114" name="Picture 113" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12985,7 +14359,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="Picture 114" descr="http://www.presidency.ucsb.edu/images/spacer.gif"/>
+        <xdr:cNvPr id="115" name="Picture 114" descr="http://www.presidency.ucsb.edu/images/spacer.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -13290,1021 +14670,1021 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.6875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2">
         <v>1431</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2">
         <v>2321</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2">
         <v>2166</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
         <v>1177</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>1211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2">
         <v>3375</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2">
         <v>4472</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2">
         <v>2915</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2">
         <v>1128</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
         <v>1176</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2">
         <v>3843</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2">
         <v>8460</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2">
         <v>4809</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2">
         <v>1090</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2">
         <v>3336</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2">
         <v>2831</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2">
         <v>3637</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2">
         <v>1127</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2">
         <v>1339</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2">
         <v>2486</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2">
         <v>2979</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2">
         <v>1686</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2">
         <v>4392</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2">
         <v>3968</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2">
         <v>2218</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2">
         <v>984</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2">
         <v>5434</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2">
         <v>1704</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2">
         <v>1526</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2">
         <v>3329</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2">
         <v>4055</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2">
         <v>3672</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2">
         <v>1880</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2">
         <v>1808</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2">
         <v>1359</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2">
         <v>559</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2">
         <v>2273</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E43" s="2">
         <v>2459</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2">
         <v>1658</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E45" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E46" s="2">
         <v>1507</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E47" s="2">
         <v>2128</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E48" s="2">
         <v>1803</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E49" s="2">
         <v>1229</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E50" s="2">
         <v>2427</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E51" s="2">
         <v>2561</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E52" s="2">
         <v>2320</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E53" s="2">
         <v>1598</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E54" s="2">
         <v>2155</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E55" s="2">
         <v>1592</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E56" s="2">
         <v>2071</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E57" s="2">
         <v>2395</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E58" s="2">
         <v>2096</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -14315,12 +15695,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
